--- a/measurements/comm_feeder_m.xlsx
+++ b/measurements/comm_feeder_m.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBBC068-DAAC-4652-9B95-69B420404C82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393F02D-6BD9-4A70-AE15-36DEFBA353B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -453,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="F22">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G22">
         <v>1E-3</v>
@@ -919,7 +927,7 @@
         <v>29</v>
       </c>
       <c r="F23">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G23">
         <v>1E-3</v>
@@ -939,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="F24">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G24">
         <v>1E-3</v>
@@ -959,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="F25">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G25">
         <v>1E-3</v>
@@ -979,7 +987,7 @@
         <v>32</v>
       </c>
       <c r="F26">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G26">
         <v>1E-3</v>
@@ -999,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="F27">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G27">
         <v>1E-3</v>
@@ -1019,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="F28">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G28">
         <v>1E-3</v>
@@ -1039,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="F29">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G29">
         <v>1E-3</v>
@@ -1059,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G30">
         <v>1E-3</v>
@@ -1099,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="F32">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G32">
         <v>1E-3</v>
@@ -1139,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="G34">
         <v>1E-3</v>
@@ -1159,7 +1167,7 @@
         <v>41</v>
       </c>
       <c r="F35">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G35">
         <v>1E-3</v>
@@ -1199,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="F37">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="G37">
         <v>1E-3</v>
@@ -1239,7 +1247,7 @@
         <v>45</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G39">
         <v>1E-3</v>
@@ -1259,7 +1267,7 @@
         <v>46</v>
       </c>
       <c r="F40">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="G40">
         <v>1E-3</v>

--- a/measurements/comm_feeder_m.xlsx
+++ b/measurements/comm_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393F02D-6BD9-4A70-AE15-36DEFBA353B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5EE1A-3013-4211-8933-D4E8F0A63782}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I41"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/measurements/comm_feeder_m.xlsx
+++ b/measurements/comm_feeder_m.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5EE1A-3013-4211-8933-D4E8F0A63782}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAD62E-5357-4345-8B58-3B7CEE650CBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -527,10 +527,10 @@
         <v>28</v>
       </c>
       <c r="F3">
-        <v>0.99970055569931893</v>
+        <v>1.00002302428816</v>
       </c>
       <c r="G3">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>29</v>
       </c>
       <c r="F4">
-        <v>0.9996237209868073</v>
+        <v>0.99994865398916399</v>
       </c>
       <c r="G4">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,10 +567,10 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>1.000298092425485</v>
+        <v>0.99998006252696303</v>
       </c>
       <c r="G5">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,10 +587,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>1.0002591072488769</v>
+        <v>1.0000428562202499</v>
       </c>
       <c r="G6">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -607,10 +607,10 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>1.000312369854601</v>
+        <v>0.99999136436147096</v>
       </c>
       <c r="G7">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,10 +627,10 @@
         <v>33</v>
       </c>
       <c r="F8">
-        <v>1.000602215656172</v>
+        <v>1.0000669827737501</v>
       </c>
       <c r="G8">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,10 +647,10 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>0.99954797197667367</v>
+        <v>0.99999512991236705</v>
       </c>
       <c r="G9">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -667,10 +667,10 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>1.0000247718324839</v>
+        <v>0.99995774663183901</v>
       </c>
       <c r="G10">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -687,10 +687,10 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.99963286539314411</v>
+        <v>1.0000538908456</v>
       </c>
       <c r="G11">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>0.99957279520592601</v>
+        <v>1.00002591186737</v>
       </c>
       <c r="G12">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
         <v>38</v>
       </c>
       <c r="F13">
-        <v>0.99969003468675444</v>
+        <v>1.0000435116986199</v>
       </c>
       <c r="G13">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>1.0002405589665671</v>
+        <v>1.0000102170007199</v>
       </c>
       <c r="G14">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>1.0007861970097129</v>
+        <v>1.00001290932179</v>
       </c>
       <c r="G15">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>41</v>
       </c>
       <c r="F16">
-        <v>1.0004087882437109</v>
+        <v>1.0000376802228499</v>
       </c>
       <c r="G16">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>42</v>
       </c>
       <c r="F17">
-        <v>1.0004755458406349</v>
+        <v>0.99996742013991902</v>
       </c>
       <c r="G17">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -827,10 +827,10 @@
         <v>43</v>
       </c>
       <c r="F18">
-        <v>0.99958481314521519</v>
+        <v>1.0000147829291299</v>
       </c>
       <c r="G18">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>44</v>
       </c>
       <c r="F19">
-        <v>1.00011238767836</v>
+        <v>0.99995162425932804</v>
       </c>
       <c r="G19">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,10 +867,10 @@
         <v>45</v>
       </c>
       <c r="F20">
-        <v>0.99955299821611221</v>
+        <v>0.99995450565959498</v>
       </c>
       <c r="G20">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,10 +887,10 @@
         <v>46</v>
       </c>
       <c r="F21">
-        <v>0.99949721005346359</v>
+        <v>1.0000504468612601</v>
       </c>
       <c r="G21">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/measurements/comm_feeder_m.xlsx
+++ b/measurements/comm_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAD62E-5357-4345-8B58-3B7CEE650CBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99EC94-2E73-4336-B8BC-108C638A7218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
         <v>29</v>
       </c>
       <c r="F23">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1E-3</v>
@@ -947,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="F24">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1E-3</v>
@@ -967,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="F25">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1E-3</v>
@@ -1027,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="F28">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1E-3</v>
@@ -1067,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1E-3</v>
@@ -1127,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G33">
         <v>1E-3</v>
@@ -1147,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="G34">
         <v>1E-3</v>
@@ -1167,7 +1167,7 @@
         <v>41</v>
       </c>
       <c r="F35">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>1E-3</v>
@@ -1187,7 +1187,7 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G36">
         <v>1E-3</v>
@@ -1227,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G38">
         <v>1E-3</v>
@@ -1247,7 +1247,7 @@
         <v>45</v>
       </c>
       <c r="F39">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="G39">
         <v>1E-3</v>
@@ -1272,6 +1272,30 @@
       <c r="G40">
         <v>1E-3</v>
       </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/measurements/comm_feeder_m.xlsx
+++ b/measurements/comm_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99EC94-2E73-4336-B8BC-108C638A7218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4E8D5-8563-4AD8-A6FA-4FA765CD9886}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="F22">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G22">
         <v>1E-3</v>
@@ -947,7 +950,7 @@
         <v>30</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>-9.9999999999999992E-2</v>
       </c>
       <c r="G24">
         <v>1E-3</v>
@@ -987,7 +990,7 @@
         <v>32</v>
       </c>
       <c r="F26">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="G26">
         <v>1E-3</v>
@@ -1007,7 +1010,7 @@
         <v>33</v>
       </c>
       <c r="F27">
-        <v>-0.4</v>
+        <v>-0.15</v>
       </c>
       <c r="G27">
         <v>1E-3</v>
@@ -1047,7 +1050,7 @@
         <v>35</v>
       </c>
       <c r="F29">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G29">
         <v>1E-3</v>
@@ -1107,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="F32">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="G32">
         <v>1E-3</v>
@@ -1127,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>-0.4</v>
+        <v>-0.16</v>
       </c>
       <c r="G33">
         <v>1E-3</v>
@@ -1147,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>-0.4</v>
+        <v>-0.18</v>
       </c>
       <c r="G34">
         <v>1E-3</v>
@@ -1187,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>-0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="G36">
         <v>1E-3</v>
@@ -1207,7 +1210,7 @@
         <v>43</v>
       </c>
       <c r="F37">
-        <v>-0.4</v>
+        <v>-0.15</v>
       </c>
       <c r="G37">
         <v>1E-3</v>
@@ -1227,7 +1230,7 @@
         <v>44</v>
       </c>
       <c r="F38">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G38">
         <v>1E-3</v>
@@ -1247,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="F39">
-        <v>-0.4</v>
+        <v>-0.25</v>
       </c>
       <c r="G39">
         <v>1E-3</v>
@@ -1267,35 +1270,391 @@
         <v>46</v>
       </c>
       <c r="F40">
-        <v>-0.3</v>
+        <v>-9.9999999999999992E-2</v>
       </c>
       <c r="G40">
         <v>1E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>28</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>31</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>33</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>35</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>36</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>37</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>38</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
